--- a/lib_tc_bak/com.aislend.ProductList.xlsx
+++ b/lib_tc_bak/com.aislend.ProductList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="374">
   <si>
     <t>Action</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>VerifyElement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element verified succesfully </t>
   </si>
   <si>
     <t>Verify My Account Link</t>
@@ -809,15 +806,6 @@
     <t>TC_CityMarket_14</t>
   </si>
   <si>
-    <t>Click Performed succesfully</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: 123456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verification of Move To Product List succesfully </t>
-  </si>
-  <si>
     <t>Click on  User name</t>
   </si>
   <si>
@@ -1007,173 +995,183 @@
     <t>exist</t>
   </si>
   <si>
-    <t>Add product successfully</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>text verified: Ready to Eat</t>
-  </si>
-  <si>
-    <t>text verified: 717 West Ave Norwalk, Connecticut,
+    <t>Shop online for ready to eat meal mixes and solutions at best prices|City Market Norwalk</t>
+  </si>
+  <si>
+    <t>//img[@src = 'https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png']</t>
+  </si>
+  <si>
+    <t>City Market Norwalk - Terms of Use</t>
+  </si>
+  <si>
+    <t>City Super Market Norwalk - Privacy Policy</t>
+  </si>
+  <si>
+    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash sangal</t>
+  </si>
+  <si>
+    <t>MoveToProductList: Quick &amp; Easy Food Solutions</t>
+  </si>
+  <si>
+    <t>VerifyTitle: Shop online for ready to eat meal mixes and solutions at best prices|City Market Norwalk</t>
+  </si>
+  <si>
+    <t>VerifyText: Ready to Eat</t>
+  </si>
+  <si>
+    <t>VerifyText: 717 West Ave Norwalk, Connecticut,
 CT 06850 , USA
 +1 203-956-0241</t>
   </si>
   <si>
-    <t>text verified: All Days 7:30 AM – 9:00 PM</t>
-  </si>
-  <si>
-    <t>text verified: Copyright © 2018 City Market Norwalk. All rights reserved. Terms Of Use &amp; Privacy Policy</t>
-  </si>
-  <si>
-    <t>Action performed successfully: Child</t>
-  </si>
-  <si>
-    <t>Link searched successfully: My Account</t>
-  </si>
-  <si>
-    <t>Link searched successfully: Account Information</t>
-  </si>
-  <si>
-    <t>Link searched successfully: My Orders</t>
-  </si>
-  <si>
-    <t>Link searched successfully: My Saved Cards</t>
-  </si>
-  <si>
-    <t>Link searched successfully: My Wish List</t>
-  </si>
-  <si>
-    <t>Link searched successfully: Delivery Coverage</t>
-  </si>
-  <si>
-    <t>Link searched successfully: Offers</t>
-  </si>
-  <si>
-    <t>Link searched successfully: Sign Out</t>
-  </si>
-  <si>
-    <t>text verified: You have no items in your shopping cart.</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: milk</t>
-  </si>
-  <si>
-    <t>text verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: asdasd@assdcsadsaasd.com</t>
-  </si>
-  <si>
-    <t>text verified: Thank you for your subscription.</t>
-  </si>
-  <si>
-    <t>SearchAndAddToWishlist Fail: Jose Ole Steak &amp; Cheese Chimichanga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verification of MiniCart succesfully </t>
-  </si>
-  <si>
-    <t>VerifyFooterLinks successfully: null</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: 6000</t>
-  </si>
-  <si>
-    <t>text verified: Akash sangal</t>
-  </si>
-  <si>
-    <t>Product searched successfully: Skim Plus 100% Fat Free Milk</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: asdasd@</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: Offers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verification of Category and it's product succesfully </t>
-  </si>
-  <si>
-    <t>City Super Market Norwalk - Online Grocery Shopping with Home Delivery</t>
-  </si>
-  <si>
-    <t>Shop online for ready to eat meal mixes and solutions at best prices|City Market Norwalk</t>
-  </si>
-  <si>
-    <t>//img[@src = 'https://smhttp-ssl-72073.nexcesscdn.net/media/logo/stores/1/City_market_logo_1.png']</t>
-  </si>
-  <si>
-    <t>City Market Norwalk - Terms of Use</t>
-  </si>
-  <si>
-    <t>City Super Market Norwalk - Privacy Policy</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: Shop online for ready to eat meal mixes and solutions at best prices|City Market Norwalk</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: City Market Norwalk - Terms of Use</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: City Super Market Norwalk - Privacy Policy</t>
-  </si>
-  <si>
-    <t>Title verification Failed: City Super Market Norwalk - Online Grocery Shopping with Home Delivery</t>
-  </si>
-  <si>
-    <t>userchandna5593954@mailinator.com</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: userchandna5593954@mailinator.com</t>
-  </si>
-  <si>
-    <t>Product sort successfully: Product Name</t>
-  </si>
-  <si>
-    <t>Product sort successfully: Price : Low to High</t>
-  </si>
-  <si>
-    <t>Product sort successfully: Price : High to Low</t>
-  </si>
-  <si>
-    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t>Title verified succesfully: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move and Add product Fail </t>
-  </si>
-  <si>
-    <t>Move and Remove product Fail: null</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: userchandna6581011@mailinator.com</t>
-  </si>
-  <si>
-    <t>Remove product successfully: All</t>
-  </si>
-  <si>
-    <t>Text Entered successfully: Randomemailid</t>
-  </si>
-  <si>
-    <t>Remove product successfully: null</t>
-  </si>
-  <si>
-    <t>action sort by failed: Product Name</t>
-  </si>
-  <si>
-    <t>unknown error: Element &lt;span class="filter__sortTrigger"&gt;...&lt;/span&gt; is not clickable at point (956, 7). Other element would receive the click: &lt;div class="header content header__content-container"&gt;...&lt;/div&gt;
+    <t>VerifyText: All Days 7:30 AM – 9:00 PM</t>
+  </si>
+  <si>
+    <t>VerifyText: Copyright © 2018 City Market Norwalk. All rights reserved. Terms Of Use &amp; Privacy Policy</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Terms of Use</t>
+  </si>
+  <si>
+    <t>CloseBrowser: Child</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Super Market Norwalk - Privacy Policy</t>
+  </si>
+  <si>
+    <t>VerifyNoElement: null</t>
+  </si>
+  <si>
+    <t>VerifyTitle: Offers</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Account</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Account Information</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Orders</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Saved Cards</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: My Wish List</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Delivery Coverage</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Offers</t>
+  </si>
+  <si>
+    <t>HeaderMenuSearch: Sign Out</t>
+  </si>
+  <si>
+    <t>VerifyText: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>SetText: milk</t>
+  </si>
+  <si>
+    <t>SearchProduct: Skim Plus 100% Fat Free Milk</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>SetText: asdasd@assdcsadsaasd.com</t>
+  </si>
+  <si>
+    <t>VerifyCategoryAndProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndAddProduct: exist</t>
+  </si>
+  <si>
+    <t>MoveAndRemoveProduct: null</t>
+  </si>
+  <si>
+    <t>MoveAndRemoveProduct: All</t>
+  </si>
+  <si>
+    <t>VerifyMiniCart: You have no items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>SortBy: Price : Low to High</t>
+  </si>
+  <si>
+    <t>SortBy: Price : High to Low</t>
+  </si>
+  <si>
+    <t>SearchAndAddToWishlist: Jose Ole Steak &amp; Cheese Chimichanga</t>
+  </si>
+  <si>
+    <t>VerifyFooterLinks: null</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>SortBy: Product Name</t>
+  </si>
+  <si>
+    <t>VerifyText: Thank you for your subscription.</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//span[contains(text(),'Akash')]"}
   (Session info: chrome=68.0.3440.106)
   (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
-Command duration or timeout: 49 milliseconds
+Command duration or timeout: 208 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
 Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
 System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\WINDOWS\TEMP\scoped_dir2304_5586}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
-Session ID: 3029accc9e73fa132c825781c7109fc7</t>
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c
+*** Element info: {Using=xpath, value=//span[contains(text(),'Akash')]}</t>
+  </si>
+  <si>
+    <t>element not visible
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 38 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir13772_30562}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: d9b43bc53cf86967166b7f272ed4684c</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1331,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1361,9 +1359,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="1">
@@ -1709,78 +1704,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="A1" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="14" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="14" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="14" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="6"/>
     </row>
     <row r="8" spans="1:7">
@@ -1796,161 +1791,161 @@
         <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1958,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0" zoomScale="60" zoomScaleNormal="60">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2029,7 +2024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:15">
+    <row ht="60" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -2037,7 +2032,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>40</v>
@@ -2045,16 +2040,16 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>21</v>
@@ -2063,7 +2058,7 @@
         <v>22</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="3" spans="1:15">
@@ -2074,7 +2069,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>41</v>
@@ -2083,17 +2078,17 @@
         <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -2102,7 +2097,7 @@
         <v>22</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="4" spans="1:15">
@@ -2122,17 +2117,17 @@
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>21</v>
@@ -2141,7 +2136,7 @@
         <v>22</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="5" spans="1:15">
@@ -2152,7 +2147,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>41</v>
@@ -2161,17 +2156,17 @@
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>21</v>
@@ -2180,10 +2175,10 @@
         <v>22</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="6" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2191,32 +2186,32 @@
         <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="G6" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>21</v>
@@ -2225,7 +2220,7 @@
         <v>22</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="7" spans="1:15">
@@ -2236,16 +2231,16 @@
         <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>25</v>
@@ -2254,10 +2249,10 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>21</v>
@@ -2266,7 +2261,7 @@
         <v>22</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="8" spans="1:15">
@@ -2274,29 +2269,29 @@
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
@@ -2305,7 +2300,7 @@
         <v>22</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="9" spans="1:15">
@@ -2313,31 +2308,31 @@
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>21</v>
@@ -2346,18 +2341,18 @@
         <v>22</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="75" r="10" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>40</v>
@@ -2365,16 +2360,16 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -2383,41 +2378,41 @@
         <v>22</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="60" r="11" spans="1:15">
       <c r="A11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
@@ -2426,18 +2421,18 @@
         <v>22</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="90" r="12" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="12" spans="1:15">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>40</v>
@@ -2445,16 +2440,16 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>21</v>
@@ -2463,39 +2458,39 @@
         <v>22</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="13" spans="1:15">
       <c r="A13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>21</v>
@@ -2504,18 +2499,18 @@
         <v>22</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="14" spans="1:15">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>41</v>
@@ -2524,17 +2519,17 @@
         <v>20</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>21</v>
@@ -2543,18 +2538,18 @@
         <v>22</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="15" spans="1:15">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>41</v>
@@ -2563,17 +2558,17 @@
         <v>20</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>21</v>
@@ -2582,37 +2577,37 @@
         <v>22</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="16" spans="1:15">
       <c r="A16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>21</v>
@@ -2621,18 +2616,18 @@
         <v>22</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="17" spans="1:15">
       <c r="A17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>41</v>
@@ -2641,17 +2636,17 @@
         <v>20</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>21</v>
@@ -2660,18 +2655,18 @@
         <v>22</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="18" spans="1:15">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>41</v>
@@ -2680,17 +2675,17 @@
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>21</v>
@@ -2699,18 +2694,18 @@
         <v>22</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="19" spans="1:15">
       <c r="A19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>41</v>
@@ -2719,17 +2714,17 @@
         <v>20</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>21</v>
@@ -2738,18 +2733,18 @@
         <v>22</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="20" spans="1:15">
       <c r="A20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>41</v>
@@ -2758,17 +2753,17 @@
         <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>21</v>
@@ -2777,39 +2772,39 @@
         <v>22</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="21" spans="1:15">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>21</v>
@@ -2818,39 +2813,39 @@
         <v>22</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="22" spans="1:15">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>21</v>
@@ -2859,39 +2854,39 @@
         <v>22</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="90" r="23" spans="1:15">
       <c r="A23" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>21</v>
@@ -2900,18 +2895,18 @@
         <v>22</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="24" spans="1:15">
       <c r="A24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>19</v>
@@ -2920,37 +2915,37 @@
         <v>20</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="25" spans="1:15">
+      <c r="A25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="25" spans="1:15">
-      <c r="A25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>40</v>
@@ -2958,18 +2953,18 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>21</v>
@@ -2978,35 +2973,35 @@
         <v>22</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="26" spans="1:15">
       <c r="A26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>21</v>
@@ -3015,18 +3010,18 @@
         <v>22</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="27" spans="1:15">
       <c r="A27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>19</v>
@@ -3035,17 +3030,17 @@
         <v>20</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>21</v>
@@ -3054,18 +3049,18 @@
         <v>22</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="28" spans="1:15">
       <c r="A28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>40</v>
@@ -3073,18 +3068,18 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>21</v>
@@ -3093,35 +3088,35 @@
         <v>22</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="29" spans="1:15">
       <c r="A29" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>21</v>
@@ -3130,18 +3125,18 @@
         <v>22</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="30" spans="1:15">
       <c r="A30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>19</v>
@@ -3150,17 +3145,17 @@
         <v>20</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>21</v>
@@ -3169,18 +3164,18 @@
         <v>22</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="31" spans="1:15">
       <c r="A31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>41</v>
@@ -3189,17 +3184,17 @@
         <v>20</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>21</v>
@@ -3208,18 +3203,18 @@
         <v>22</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="32" spans="1:15">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>19</v>
@@ -3228,17 +3223,17 @@
         <v>20</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>21</v>
@@ -3247,37 +3242,37 @@
         <v>22</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="33" spans="1:15">
       <c r="A33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="E33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>21</v>
@@ -3286,18 +3281,18 @@
         <v>22</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="34" spans="1:15">
       <c r="A34" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>19</v>
@@ -3306,17 +3301,17 @@
         <v>20</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>21</v>
@@ -3325,18 +3320,18 @@
         <v>22</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="35" spans="1:15">
       <c r="A35" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>40</v>
@@ -3344,16 +3339,16 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>21</v>
@@ -3362,41 +3357,41 @@
         <v>22</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="60" r="36" spans="1:15">
       <c r="A36" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>21</v>
@@ -3405,18 +3400,18 @@
         <v>22</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="90" r="37" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="37" spans="1:15">
       <c r="A37" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>40</v>
@@ -3424,16 +3419,16 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>21</v>
@@ -3442,18 +3437,18 @@
         <v>22</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="38" spans="1:15">
       <c r="A38" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>19</v>
@@ -3462,17 +3457,17 @@
         <v>20</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>21</v>
@@ -3481,18 +3476,18 @@
         <v>22</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="39" spans="1:15">
       <c r="A39" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>41</v>
@@ -3501,17 +3496,17 @@
         <v>20</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>21</v>
@@ -3520,39 +3515,39 @@
         <v>22</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="40" spans="1:15">
       <c r="A40" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>21</v>
@@ -3561,39 +3556,39 @@
         <v>22</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="41" spans="1:15">
       <c r="A41" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>21</v>
@@ -3602,39 +3597,39 @@
         <v>22</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="42" spans="1:15">
       <c r="A42" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>21</v>
@@ -3643,39 +3638,39 @@
         <v>22</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="43" spans="1:15">
       <c r="A43" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>21</v>
@@ -3684,39 +3679,39 @@
         <v>22</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="44" spans="1:15">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>21</v>
@@ -3725,39 +3720,39 @@
         <v>22</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="45" spans="1:15">
       <c r="A45" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>21</v>
@@ -3766,39 +3761,39 @@
         <v>22</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="46" spans="1:15">
       <c r="A46" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>21</v>
@@ -3807,39 +3802,39 @@
         <v>22</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="47" spans="1:15">
       <c r="A47" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>21</v>
@@ -3848,18 +3843,18 @@
         <v>22</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="48" spans="1:15">
       <c r="A48" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>19</v>
@@ -3868,17 +3863,17 @@
         <v>20</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>21</v>
@@ -3887,37 +3882,37 @@
         <v>22</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="49" spans="1:15">
       <c r="A49" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>21</v>
@@ -3926,18 +3921,18 @@
         <v>22</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="60" r="50" spans="1:15">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>19</v>
@@ -3946,17 +3941,17 @@
         <v>20</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>21</v>
@@ -3965,18 +3960,18 @@
         <v>22</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="51" spans="1:15">
       <c r="A51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>41</v>
@@ -3985,17 +3980,17 @@
         <v>20</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>21</v>
@@ -4004,39 +3999,39 @@
         <v>22</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="60" r="52" spans="1:15">
       <c r="A52" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>21</v>
@@ -4045,37 +4040,37 @@
         <v>22</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="53" spans="1:15">
       <c r="A53" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>21</v>
@@ -4084,37 +4079,37 @@
         <v>22</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="54" spans="1:15">
       <c r="A54" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>21</v>
@@ -4123,18 +4118,18 @@
         <v>22</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="55" spans="1:15">
       <c r="A55" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>18</v>
@@ -4143,19 +4138,19 @@
         <v>20</v>
       </c>
       <c r="F55" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>193</v>
       </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>21</v>
@@ -4164,18 +4159,18 @@
         <v>22</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="56" spans="1:15">
       <c r="A56" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>19</v>
@@ -4184,17 +4179,17 @@
         <v>20</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>21</v>
@@ -4203,39 +4198,39 @@
         <v>22</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="57" spans="1:15">
       <c r="A57" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>21</v>
@@ -4244,41 +4239,41 @@
         <v>22</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="60" r="58" spans="1:15">
       <c r="A58" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>21</v>
@@ -4287,39 +4282,39 @@
         <v>22</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="59" spans="1:15">
       <c r="A59" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>21</v>
@@ -4328,18 +4323,18 @@
         <v>22</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="60" spans="1:15">
       <c r="A60" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>19</v>
@@ -4348,17 +4343,17 @@
         <v>20</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>21</v>
@@ -4367,39 +4362,39 @@
         <v>22</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="61" spans="1:15">
       <c r="A61" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>21</v>
@@ -4408,39 +4403,39 @@
         <v>22</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="62" spans="1:15">
       <c r="A62" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>205</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>21</v>
@@ -4449,18 +4444,18 @@
         <v>22</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="63" spans="1:15">
       <c r="A63" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>19</v>
@@ -4469,17 +4464,17 @@
         <v>20</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>21</v>
@@ -4488,39 +4483,39 @@
         <v>22</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="60" r="64" spans="1:15">
       <c r="A64" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>21</v>
@@ -4529,37 +4524,37 @@
         <v>22</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="60" r="65" spans="1:15">
       <c r="A65" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="E65" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>21</v>
@@ -4568,41 +4563,41 @@
         <v>22</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="60" r="66" spans="1:15">
       <c r="A66" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>21</v>
@@ -4611,37 +4606,37 @@
         <v>22</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="67" spans="1:15">
       <c r="A67" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>21</v>
@@ -4650,37 +4645,37 @@
         <v>22</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="68" spans="1:15">
       <c r="A68" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>21</v>
@@ -4689,37 +4684,37 @@
         <v>22</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="69" spans="1:15">
       <c r="A69" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>21</v>
@@ -4728,39 +4723,39 @@
         <v>22</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="70" spans="1:15">
       <c r="A70" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>21</v>
@@ -4769,37 +4764,37 @@
         <v>22</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="71" spans="1:15">
       <c r="A71" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>21</v>
@@ -4808,39 +4803,39 @@
         <v>22</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="72" spans="1:15">
       <c r="A72" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>21</v>
@@ -4849,18 +4844,18 @@
         <v>22</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="60" r="73" spans="1:15">
       <c r="A73" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>19</v>
@@ -4869,17 +4864,17 @@
         <v>20</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>21</v>
@@ -4888,39 +4883,39 @@
         <v>22</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="74" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="74" spans="1:15">
       <c r="A74" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="E74" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="G74" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>21</v>
@@ -4929,37 +4924,37 @@
         <v>22</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="75" spans="1:15">
       <c r="A75" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>21</v>
@@ -4968,37 +4963,37 @@
         <v>22</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="76" spans="1:15">
       <c r="A76" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>42</v>
+        <v>341</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>21</v>
@@ -5007,80 +5002,80 @@
         <v>22</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="77" spans="1:15">
       <c r="A77" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="E77" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>377</v>
+        <v>22</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="78" spans="1:15">
       <c r="A78" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="E78" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>21</v>
@@ -5089,39 +5084,39 @@
         <v>22</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="79" spans="1:15">
       <c r="A79" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="E79" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>21</v>
@@ -5130,41 +5125,41 @@
         <v>22</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="60" r="80" spans="1:15">
       <c r="A80" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D80" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G80" s="4" t="s">
+      <c r="H80" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>21</v>
@@ -5173,82 +5168,76 @@
         <v>22</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="81" spans="1:15">
       <c r="A81" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>218</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="N81" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="60" r="82" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="82" spans="1:15">
       <c r="A82" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>261</v>
+        <v>358</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>21</v>
@@ -5257,37 +5246,37 @@
         <v>22</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="75" r="83" spans="1:15">
       <c r="A83" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>21</v>
@@ -5296,37 +5285,37 @@
         <v>22</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="75" r="84" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="84" spans="1:15">
       <c r="A84" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="G84" s="4"/>
-      <c r="H84" s="9"/>
+      <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>21</v>
@@ -5335,37 +5324,39 @@
         <v>22</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="75" r="85" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="85" spans="1:15">
       <c r="A85" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G85" s="4"/>
+        <v>228</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>21</v>
@@ -5374,37 +5365,37 @@
         <v>22</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="60" r="86" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="86" spans="1:15">
       <c r="A86" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>21</v>
@@ -5413,39 +5404,41 @@
         <v>22</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="87" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="87" spans="1:15">
       <c r="A87" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H87" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>21</v>
@@ -5454,37 +5447,39 @@
         <v>22</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="88" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="88" spans="1:15">
       <c r="A88" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G88" s="4"/>
+        <v>199</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>259</v>
+        <v>361</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>21</v>
@@ -5493,41 +5488,37 @@
         <v>22</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="60" r="89" spans="1:15">
       <c r="A89" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>21</v>
@@ -5536,39 +5527,39 @@
         <v>22</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="75" r="90" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="90" spans="1:15">
       <c r="A90" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>326</v>
+        <v>184</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>21</v>
@@ -5577,37 +5568,37 @@
         <v>22</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="60" r="91" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="91" spans="1:15">
       <c r="A91" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>101</v>
+        <v>256</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>21</v>
@@ -5616,39 +5607,41 @@
         <v>22</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="92" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="92" spans="1:15">
       <c r="A92" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H92" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="M92" s="4" t="s">
         <v>21</v>
@@ -5657,37 +5650,37 @@
         <v>22</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="93" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="93" spans="1:15">
       <c r="A93" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>257</v>
+        <v>34</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>188</v>
+        <v>318</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>259</v>
+        <v>366</v>
       </c>
       <c r="M93" s="4" t="s">
         <v>21</v>
@@ -5696,80 +5689,76 @@
         <v>22</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="60" r="94" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="94" spans="1:15">
       <c r="A94" s="4" t="s">
-        <v>92</v>
+        <v>314</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D94" s="4" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="L94" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="95" spans="1:15">
+      <c r="A95" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O94" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="95" spans="1:15">
-      <c r="A95" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>322</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>21</v>
@@ -5778,76 +5767,74 @@
         <v>22</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="96" spans="1:15">
       <c r="A96" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G96" s="4"/>
+        <v>269</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="97" spans="1:15">
+      <c r="A97" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N96" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O96" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="97" spans="1:15">
-      <c r="A97" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4" t="s">
-        <v>266</v>
+        <v>70</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c r="M97" s="4" t="s">
         <v>21</v>
@@ -5856,83 +5843,7 @@
         <v>22</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="98" spans="1:15">
-      <c r="A98" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N98" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O98" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="99" spans="1:15">
-      <c r="A99" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M99" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N99" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O99" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5947,10 +5858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0" zoomScale="76">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6018,7 +5929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row ht="75" r="2" spans="1:15">
+    <row ht="60" r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -6026,7 +5937,7 @@
         <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>40</v>
@@ -6034,25 +5945,25 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="3" spans="1:15">
@@ -6063,7 +5974,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>41</v>
@@ -6072,17 +5983,17 @@
         <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>21</v>
@@ -6091,7 +6002,7 @@
         <v>22</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="4" spans="1:15">
@@ -6111,17 +6022,17 @@
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>21</v>
@@ -6130,7 +6041,7 @@
         <v>22</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="45" r="5" spans="1:15">
@@ -6141,7 +6052,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>41</v>
@@ -6150,17 +6061,17 @@
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>21</v>
@@ -6169,10 +6080,10 @@
         <v>22</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="45" r="6" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="6" spans="1:15">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -6180,32 +6091,32 @@
         <v>38</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>363</v>
+      <c r="G6" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>21</v>
@@ -6214,7 +6125,7 @@
         <v>22</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="7" spans="1:15">
@@ -6225,16 +6136,16 @@
         <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>25</v>
@@ -6243,10 +6154,10 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>21</v>
@@ -6255,7 +6166,7 @@
         <v>22</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row ht="30" r="8" spans="1:15">
@@ -6263,29 +6174,29 @@
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>21</v>
@@ -6294,41 +6205,39 @@
         <v>22</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="60" r="9" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="9" spans="1:15">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>21</v>
@@ -6337,39 +6246,35 @@
         <v>22</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="10" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>240</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>244</v>
+        <v>69</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>21</v>
@@ -6378,39 +6283,41 @@
         <v>22</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="11" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="11" spans="1:15">
       <c r="A11" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>21</v>
@@ -6419,54 +6326,3519 @@
         <v>22</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row ht="30" r="12" spans="1:15">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="12" spans="1:15">
       <c r="A12" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>240</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="13" spans="1:15">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="14" spans="1:15">
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="15" spans="1:15">
+      <c r="A15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="16" spans="1:15">
+      <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="17" spans="1:15">
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="18" spans="1:15">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="19" spans="1:15">
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="20" spans="1:15">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="21" spans="1:15">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="22" spans="1:15">
+      <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="90" r="23" spans="1:15">
+      <c r="A23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="24" spans="1:15">
+      <c r="A24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="25" spans="1:15">
+      <c r="A25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="26" spans="1:15">
+      <c r="A26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="27" spans="1:15">
+      <c r="A27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="28" spans="1:15">
+      <c r="A28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="29" spans="1:15">
+      <c r="A29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="30" spans="1:15">
+      <c r="A30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="31" spans="1:15">
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="32" spans="1:15">
+      <c r="A32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="33" spans="1:15">
+      <c r="A33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="34" spans="1:15">
+      <c r="A34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="35" spans="1:15">
+      <c r="A35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="36" spans="1:15">
+      <c r="A36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="37" spans="1:15">
+      <c r="A37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="38" spans="1:15">
+      <c r="A38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="39" spans="1:15">
+      <c r="A39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="40" spans="1:15">
+      <c r="A40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="41" spans="1:15">
+      <c r="A41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="42" spans="1:15">
+      <c r="A42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="43" spans="1:15">
+      <c r="A43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="44" spans="1:15">
+      <c r="A44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="45" spans="1:15">
+      <c r="A45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="46" spans="1:15">
+      <c r="A46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="47" spans="1:15">
+      <c r="A47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="48" spans="1:15">
+      <c r="A48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="49" spans="1:15">
+      <c r="A49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="50" spans="1:15">
+      <c r="A50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="51" spans="1:15">
+      <c r="A51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="52" spans="1:15">
+      <c r="A52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="53" spans="1:15">
+      <c r="A53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="54" spans="1:15">
+      <c r="A54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="55" spans="1:15">
+      <c r="A55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="56" spans="1:15">
+      <c r="A56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="57" spans="1:15">
+      <c r="A57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="58" spans="1:15">
+      <c r="A58" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="59" spans="1:15">
+      <c r="A59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="60" spans="1:15">
+      <c r="A60" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="61" spans="1:15">
+      <c r="A61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="62" spans="1:15">
+      <c r="A62" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="63" spans="1:15">
+      <c r="A63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="64" spans="1:15">
+      <c r="A64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="65" spans="1:15">
+      <c r="A65" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="66" spans="1:15">
+      <c r="A66" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="67" spans="1:15">
+      <c r="A67" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="M67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="68" spans="1:15">
+      <c r="A68" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O68" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="69" spans="1:15">
+      <c r="A69" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="70" spans="1:15">
+      <c r="A70" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="71" spans="1:15">
+      <c r="A71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="72" spans="1:15">
+      <c r="A72" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="73" spans="1:15">
+      <c r="A73" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="74" spans="1:15">
+      <c r="A74" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="75" spans="1:15">
+      <c r="A75" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="76" spans="1:15">
+      <c r="A76" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="77" spans="1:15">
+      <c r="A77" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="78" spans="1:15">
+      <c r="A78" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="79" spans="1:15">
+      <c r="A79" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="80" spans="1:15">
+      <c r="A80" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="81" spans="1:15">
+      <c r="A81" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="E81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="82" spans="1:15">
+      <c r="A82" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O82" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="83" spans="1:15">
+      <c r="A83" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O83" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="84" spans="1:15">
+      <c r="A84" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="85" spans="1:15">
+      <c r="A85" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="M85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O85" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="86" spans="1:15">
+      <c r="A86" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O86" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="87" spans="1:15">
+      <c r="A87" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="88" spans="1:15">
+      <c r="A88" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="89" spans="1:15">
+      <c r="A89" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="75" r="90" spans="1:15">
+      <c r="A90" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O90" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="91" spans="1:15">
+      <c r="A91" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O91" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="92" spans="1:15">
+      <c r="A92" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O92" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="93" spans="1:15">
+      <c r="A93" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O93" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="60" r="94" spans="1:15">
+      <c r="A94" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O94" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="95" spans="1:15">
+      <c r="A95" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O95" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="96" spans="1:15">
+      <c r="A96" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O96" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="97" spans="1:15">
+      <c r="A97" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M97" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="30" r="98" spans="1:15">
+      <c r="A98" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="L98" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>95</v>
+      <c r="M98" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row ht="45" r="99" spans="1:15">
+      <c r="A99" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H6"/>
-    <hyperlink r:id="rId2" ref="G6"/>
+    <hyperlink r:id="rId1" ref="G59"/>
+    <hyperlink r:id="rId2" ref="H6"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
